--- a/publication/results/rigid_transforms/dfdz_icp.xlsx
+++ b/publication/results/rigid_transforms/dfdz_icp.xlsx
@@ -527,28 +527,28 @@
         <v>-48.09999999999999</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3694329503289135</v>
+        <v>0.369432950111376</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9983038278753119</v>
+        <v>0.998303827836966</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.4652015470666697</v>
+        <v>-0.4652015470399533</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.6458914122529791</v>
+        <v>-0.6458914122187025</v>
       </c>
       <c r="J2" t="n">
-        <v>-47.90670654711738</v>
+        <v>-47.90670650856717</v>
       </c>
       <c r="K2" t="n">
-        <v>0.5573518019044922</v>
+        <v>0.5573518019454005</v>
       </c>
       <c r="L2" t="n">
-        <v>0.522567922085848</v>
+        <v>0.5225679219601601</v>
       </c>
       <c r="M2" t="n">
-        <v>0.6422017214288114</v>
+        <v>0.6422017214251684</v>
       </c>
       <c r="N2" t="n">
         <v>87</v>
@@ -577,28 +577,28 @@
         <v>-43.09999999999999</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3579305072077371</v>
+        <v>0.3579305071917867</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8810055938676354</v>
+        <v>0.88100559389049</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.3085431251629037</v>
+        <v>-0.3085431250918873</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.6833757971083779</v>
+        <v>-0.6833757971339386</v>
       </c>
       <c r="J3" t="n">
-        <v>-43.15815155575007</v>
+        <v>-43.15815162360116</v>
       </c>
       <c r="K3" t="n">
-        <v>0.5410777066502538</v>
+        <v>0.5410777068592423</v>
       </c>
       <c r="L3" t="n">
-        <v>0.491627106102756</v>
+        <v>0.4916271059109996</v>
       </c>
       <c r="M3" t="n">
-        <v>0.4893146107792187</v>
+        <v>0.4893146107819517</v>
       </c>
       <c r="N3" t="n">
         <v>86.33333333333333</v>
@@ -627,28 +627,28 @@
         <v>-38.09999999999999</v>
       </c>
       <c r="F4" t="n">
-        <v>0.3440443283824149</v>
+        <v>0.344044327469925</v>
       </c>
       <c r="G4" t="n">
-        <v>0.860097303360139</v>
+        <v>0.860097302807894</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.2329571306102025</v>
+        <v>-0.2329571303713275</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.640074638380554</v>
+        <v>-0.6400746383501996</v>
       </c>
       <c r="J4" t="n">
-        <v>-37.75894114247871</v>
+        <v>-37.75894115048538</v>
       </c>
       <c r="K4" t="n">
-        <v>0.5341894422141188</v>
+        <v>0.5341894421359382</v>
       </c>
       <c r="L4" t="n">
-        <v>0.499786270107103</v>
+        <v>0.4997862692353729</v>
       </c>
       <c r="M4" t="n">
-        <v>0.452166469558068</v>
+        <v>0.4521664695578601</v>
       </c>
       <c r="N4" t="n">
         <v>87</v>
@@ -677,28 +677,28 @@
         <v>-33.09999999999999</v>
       </c>
       <c r="F5" t="n">
-        <v>0.3134214203692863</v>
+        <v>0.3134214205767196</v>
       </c>
       <c r="G5" t="n">
-        <v>0.7923424094263797</v>
+        <v>0.7923424098553969</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.1884625918385154</v>
+        <v>-0.1884625922220569</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.5783821867259084</v>
+        <v>-0.5783821866288766</v>
       </c>
       <c r="J5" t="n">
-        <v>-33.05547389818804</v>
+        <v>-33.05546593147483</v>
       </c>
       <c r="K5" t="n">
-        <v>0.5447701960132333</v>
+        <v>0.544770196025338</v>
       </c>
       <c r="L5" t="n">
-        <v>0.5006896374226083</v>
+        <v>0.500689637773287</v>
       </c>
       <c r="M5" t="n">
-        <v>0.2830778216421468</v>
+        <v>0.2830778221988562</v>
       </c>
       <c r="N5" t="n">
         <v>87</v>
@@ -727,28 +727,28 @@
         <v>-28.09999999999999</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2834625184940541</v>
+        <v>0.2834625181245794</v>
       </c>
       <c r="G6" t="n">
-        <v>0.7717089548864683</v>
+        <v>0.7717089545364276</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.05053952486650815</v>
+        <v>-0.05053952488439487</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.5524418853522283</v>
+        <v>-0.5524418849075042</v>
       </c>
       <c r="J6" t="n">
-        <v>-28.5145874467325</v>
+        <v>-28.51456904369855</v>
       </c>
       <c r="K6" t="n">
-        <v>0.5390622867567695</v>
+        <v>0.539062286847147</v>
       </c>
       <c r="L6" t="n">
-        <v>0.4991468719904348</v>
+        <v>0.4991468719364623</v>
       </c>
       <c r="M6" t="n">
-        <v>0.2359148000509063</v>
+        <v>0.2359147988109355</v>
       </c>
       <c r="N6" t="n">
         <v>87</v>
@@ -777,28 +777,28 @@
         <v>-23.09999999999999</v>
       </c>
       <c r="F7" t="n">
-        <v>0.295102489321884</v>
+        <v>0.2951024893962449</v>
       </c>
       <c r="G7" t="n">
-        <v>0.7738981663155068</v>
+        <v>0.7738981663497796</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.02974457688731036</v>
+        <v>-0.02974457671443058</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.3915654883095196</v>
+        <v>-0.3915654883850455</v>
       </c>
       <c r="J7" t="n">
-        <v>-22.99376816622761</v>
+        <v>-22.99376076589184</v>
       </c>
       <c r="K7" t="n">
-        <v>0.5361164356319065</v>
+        <v>0.5361164355800426</v>
       </c>
       <c r="L7" t="n">
-        <v>0.4930037230066979</v>
+        <v>0.4930037230492197</v>
       </c>
       <c r="M7" t="n">
-        <v>0.2614213931219815</v>
+        <v>0.2614213932482687</v>
       </c>
       <c r="N7" t="n">
         <v>87</v>
@@ -827,28 +827,28 @@
         <v>-18.09999999999999</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2618784990390292</v>
+        <v>0.2618784988947956</v>
       </c>
       <c r="G8" t="n">
-        <v>0.7382036408455811</v>
+        <v>0.738203640779739</v>
       </c>
       <c r="H8" t="n">
-        <v>0.03829161114108123</v>
+        <v>0.03829161126386301</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.2444748509845454</v>
+        <v>-0.244474850995213</v>
       </c>
       <c r="J8" t="n">
-        <v>-18.16152033562256</v>
+        <v>-18.16151717721088</v>
       </c>
       <c r="K8" t="n">
-        <v>0.4976729420971653</v>
+        <v>0.4976729420450172</v>
       </c>
       <c r="L8" t="n">
-        <v>0.4662748812497798</v>
+        <v>0.4662748812119588</v>
       </c>
       <c r="M8" t="n">
-        <v>0.2824908349142695</v>
+        <v>0.2824908349008494</v>
       </c>
       <c r="N8" t="n">
         <v>83.33333333333333</v>
@@ -877,28 +877,28 @@
         <v>-13.09999999999999</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2647974367843365</v>
+        <v>0.2647974367083047</v>
       </c>
       <c r="G9" t="n">
-        <v>0.7497131723346381</v>
+        <v>0.7497131723590368</v>
       </c>
       <c r="H9" t="n">
-        <v>0.009887648713762095</v>
+        <v>0.009887648630069634</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.2404089342163616</v>
+        <v>-0.240408934236162</v>
       </c>
       <c r="J9" t="n">
-        <v>-13.3996080169598</v>
+        <v>-13.39960767762339</v>
       </c>
       <c r="K9" t="n">
-        <v>0.5030890420873784</v>
+        <v>0.5030890420902692</v>
       </c>
       <c r="L9" t="n">
-        <v>0.4439084756218213</v>
+        <v>0.4439084756787889</v>
       </c>
       <c r="M9" t="n">
-        <v>0.334166573560996</v>
+        <v>0.3341665735316888</v>
       </c>
       <c r="N9" t="n">
         <v>66</v>
@@ -927,28 +927,28 @@
         <v>-8.099999999999994</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2032466781586477</v>
+        <v>0.2032466782585169</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6545653612555782</v>
+        <v>0.6545653613184254</v>
       </c>
       <c r="H10" t="n">
-        <v>0.06974547829859527</v>
+        <v>0.06974547830742495</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.1387982662356156</v>
+        <v>-0.138798266189004</v>
       </c>
       <c r="J10" t="n">
-        <v>-8.124558077266146</v>
+        <v>-8.124555542791063</v>
       </c>
       <c r="K10" t="n">
-        <v>0.4795351001829856</v>
+        <v>0.4795351001809584</v>
       </c>
       <c r="L10" t="n">
-        <v>0.3880976376693211</v>
+        <v>0.3880976376095263</v>
       </c>
       <c r="M10" t="n">
-        <v>0.2187239545336639</v>
+        <v>0.2187239548320985</v>
       </c>
       <c r="N10" t="n">
         <v>51</v>
@@ -977,28 +977,28 @@
         <v>-3.099999999999994</v>
       </c>
       <c r="F11" t="n">
-        <v>0.2407646538284381</v>
+        <v>0.2407646538544153</v>
       </c>
       <c r="G11" t="n">
-        <v>0.6408152334879071</v>
+        <v>0.6408152334921872</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.03524418781055753</v>
+        <v>-0.03524418782370731</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.05779066989202875</v>
+        <v>-0.0577906698945867</v>
       </c>
       <c r="J11" t="n">
-        <v>-3.856148804372799</v>
+        <v>-3.85614877942281</v>
       </c>
       <c r="K11" t="n">
-        <v>0.445050504914996</v>
+        <v>0.4450505049279881</v>
       </c>
       <c r="L11" t="n">
-        <v>0.3273556607149808</v>
+        <v>0.3273556607006591</v>
       </c>
       <c r="M11" t="n">
-        <v>0.3245067131907846</v>
+        <v>0.3245067131954583</v>
       </c>
       <c r="N11" t="n">
         <v>29</v>
@@ -1027,28 +1027,28 @@
         <v>1.900000000000006</v>
       </c>
       <c r="F12" t="n">
-        <v>0.4689562215170074</v>
+        <v>0.468956221510367</v>
       </c>
       <c r="G12" t="n">
-        <v>1.058138228519576</v>
+        <v>1.058138228541438</v>
       </c>
       <c r="H12" t="n">
-        <v>0.02102574995753533</v>
+        <v>0.02102574995135835</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.007507685867816842</v>
+        <v>-0.007507685895878542</v>
       </c>
       <c r="J12" t="n">
-        <v>2.715052695567074</v>
+        <v>2.715052450826697</v>
       </c>
       <c r="K12" t="n">
-        <v>0.4956936719862309</v>
+        <v>0.4956936720044702</v>
       </c>
       <c r="L12" t="n">
-        <v>0.4399651948305449</v>
+        <v>0.4399651948268326</v>
       </c>
       <c r="M12" t="n">
-        <v>0.8248414215857512</v>
+        <v>0.8248414216047548</v>
       </c>
       <c r="N12" t="n">
         <v>84.66666666666667</v>
@@ -1077,28 +1077,28 @@
         <v>6.900000000000006</v>
       </c>
       <c r="F13" t="n">
-        <v>0.2437425432426876</v>
+        <v>0.2437425431901727</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6873233563267857</v>
+        <v>0.6873233563059692</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.01025735853649697</v>
+        <v>-0.01025735852347983</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.01542737968607829</v>
+        <v>-0.01542737969856489</v>
       </c>
       <c r="J13" t="n">
-        <v>6.671527773457711</v>
+        <v>6.671526388828361</v>
       </c>
       <c r="K13" t="n">
-        <v>0.4940560442911199</v>
+        <v>0.4940560442765672</v>
       </c>
       <c r="L13" t="n">
-        <v>0.4462672081401779</v>
+        <v>0.4462672080867118</v>
       </c>
       <c r="M13" t="n">
-        <v>0.1706821636255877</v>
+        <v>0.1706821637237916</v>
       </c>
       <c r="N13" t="n">
         <v>82.33333333333333</v>
@@ -1127,28 +1127,28 @@
         <v>11.90000000000001</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2644352772272643</v>
+        <v>0.2644352771330237</v>
       </c>
       <c r="G14" t="n">
-        <v>0.7164393154869014</v>
+        <v>0.7164393154827611</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.01490295508834076</v>
+        <v>-0.01490295506838872</v>
       </c>
       <c r="I14" t="n">
-        <v>0.02668943411792194</v>
+        <v>0.02668943411803563</v>
       </c>
       <c r="J14" t="n">
-        <v>12.11178961995952</v>
+        <v>12.11178777911472</v>
       </c>
       <c r="K14" t="n">
-        <v>0.5213689386943448</v>
+        <v>0.5213689386825254</v>
       </c>
       <c r="L14" t="n">
-        <v>0.4744964756450298</v>
+        <v>0.4744964756557866</v>
       </c>
       <c r="M14" t="n">
-        <v>0.1277080062160967</v>
+        <v>0.1277080062011416</v>
       </c>
       <c r="N14" t="n">
         <v>86</v>
@@ -1177,28 +1177,28 @@
         <v>16.90000000000001</v>
       </c>
       <c r="F15" t="n">
-        <v>0.2721814889227288</v>
+        <v>0.2721814889981897</v>
       </c>
       <c r="G15" t="n">
-        <v>0.7246924555712099</v>
+        <v>0.7246924555626055</v>
       </c>
       <c r="H15" t="n">
-        <v>-0.04943590905632315</v>
+        <v>-0.04943590896236098</v>
       </c>
       <c r="I15" t="n">
-        <v>0.0411307903522129</v>
+        <v>0.04113079040636573</v>
       </c>
       <c r="J15" t="n">
-        <v>16.84102012056422</v>
+        <v>16.84102404703329</v>
       </c>
       <c r="K15" t="n">
-        <v>0.5122924918623757</v>
+        <v>0.5122924918272792</v>
       </c>
       <c r="L15" t="n">
-        <v>0.4962966200674884</v>
+        <v>0.4962966201062111</v>
       </c>
       <c r="M15" t="n">
-        <v>0.128067925564441</v>
+        <v>0.1280679255078697</v>
       </c>
       <c r="N15" t="n">
         <v>87</v>
@@ -1227,28 +1227,28 @@
         <v>21.90000000000001</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2748700686664224</v>
+        <v>0.274870068686895</v>
       </c>
       <c r="G16" t="n">
-        <v>0.7406040874739991</v>
+        <v>0.7406040874812728</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.1080439519741958</v>
+        <v>-0.1080439522483895</v>
       </c>
       <c r="I16" t="n">
-        <v>0.0243596194761911</v>
+        <v>0.02435961965960587</v>
       </c>
       <c r="J16" t="n">
-        <v>21.97972241191587</v>
+        <v>21.97972093322751</v>
       </c>
       <c r="K16" t="n">
-        <v>0.5275406360953648</v>
+        <v>0.5275406360429972</v>
       </c>
       <c r="L16" t="n">
-        <v>0.495446701888012</v>
+        <v>0.4954467019461167</v>
       </c>
       <c r="M16" t="n">
-        <v>0.1571629581690774</v>
+        <v>0.1571629581975718</v>
       </c>
       <c r="N16" t="n">
         <v>87</v>
@@ -1277,28 +1277,28 @@
         <v>26.90000000000001</v>
       </c>
       <c r="F17" t="n">
-        <v>0.2826214882209721</v>
+        <v>0.2826214880876257</v>
       </c>
       <c r="G17" t="n">
-        <v>0.7539212906560854</v>
+        <v>0.7539212904996201</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.1686652107751835</v>
+        <v>-0.1686652106844614</v>
       </c>
       <c r="I17" t="n">
-        <v>0.04348353214832438</v>
+        <v>0.04348353216952697</v>
       </c>
       <c r="J17" t="n">
-        <v>27.69146935070492</v>
+        <v>27.69146935206247</v>
       </c>
       <c r="K17" t="n">
-        <v>0.5411950079531181</v>
+        <v>0.5411950078058578</v>
       </c>
       <c r="L17" t="n">
-        <v>0.4916870139965555</v>
+        <v>0.4916870139209231</v>
       </c>
       <c r="M17" t="n">
-        <v>0.1835875177451199</v>
+        <v>0.1835875177450526</v>
       </c>
       <c r="N17" t="n">
         <v>87</v>
@@ -1327,28 +1327,28 @@
         <v>31.90000000000001</v>
       </c>
       <c r="F18" t="n">
-        <v>0.2857128695858865</v>
+        <v>0.2857128692912816</v>
       </c>
       <c r="G18" t="n">
-        <v>0.7581659533617726</v>
+        <v>0.7581659532125556</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.2128307441385762</v>
+        <v>-0.212830744397157</v>
       </c>
       <c r="I18" t="n">
-        <v>0.0321762592768664</v>
+        <v>0.03217625955447071</v>
       </c>
       <c r="J18" t="n">
-        <v>32.51046605343179</v>
+        <v>32.51047776874859</v>
       </c>
       <c r="K18" t="n">
-        <v>0.5410547603435875</v>
+        <v>0.5410547601132967</v>
       </c>
       <c r="L18" t="n">
-        <v>0.4869007103671771</v>
+        <v>0.4869007104809496</v>
       </c>
       <c r="M18" t="n">
-        <v>0.2115099189132457</v>
+        <v>0.2115099186529541</v>
       </c>
       <c r="N18" t="n">
         <v>87</v>
@@ -1377,28 +1377,28 @@
         <v>36.90000000000001</v>
       </c>
       <c r="F19" t="n">
-        <v>0.2496752547255244</v>
+        <v>0.2496752547947112</v>
       </c>
       <c r="G19" t="n">
-        <v>0.7555538447000142</v>
+        <v>0.7555538447871212</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.2741783046700637</v>
+        <v>-0.2741783046721859</v>
       </c>
       <c r="I19" t="n">
-        <v>0.07084085213402129</v>
+        <v>0.07084085204040018</v>
       </c>
       <c r="J19" t="n">
-        <v>37.56159171025337</v>
+        <v>37.56159042426403</v>
       </c>
       <c r="K19" t="n">
-        <v>0.5297601032144836</v>
+        <v>0.5297601031457279</v>
       </c>
       <c r="L19" t="n">
-        <v>0.461872761249476</v>
+        <v>0.461872761395429</v>
       </c>
       <c r="M19" t="n">
-        <v>0.2767795957493355</v>
+        <v>0.2767795958785355</v>
       </c>
       <c r="N19" t="n">
         <v>87</v>
@@ -1427,28 +1427,28 @@
         <v>41.90000000000001</v>
       </c>
       <c r="F20" t="n">
-        <v>0.2820956852916099</v>
+        <v>0.2820956853014425</v>
       </c>
       <c r="G20" t="n">
-        <v>0.7726528412431438</v>
+        <v>0.7726528409637798</v>
       </c>
       <c r="H20" t="n">
-        <v>-0.2052075952097425</v>
+        <v>-0.2052075953249073</v>
       </c>
       <c r="I20" t="n">
-        <v>0.1993124582282348</v>
+        <v>0.1993124583286582</v>
       </c>
       <c r="J20" t="n">
-        <v>42.39439380754143</v>
+        <v>42.39441079712157</v>
       </c>
       <c r="K20" t="n">
-        <v>0.5285290055240849</v>
+        <v>0.5285290056057405</v>
       </c>
       <c r="L20" t="n">
-        <v>0.4720537543823585</v>
+        <v>0.4720537543439556</v>
       </c>
       <c r="M20" t="n">
-        <v>0.3066845001758097</v>
+        <v>0.3066844994774125</v>
       </c>
       <c r="N20" t="n">
         <v>87</v>
@@ -1477,28 +1477,28 @@
         <v>46.90000000000001</v>
       </c>
       <c r="F21" t="n">
-        <v>0.3300797482720126</v>
+        <v>0.3300797483717816</v>
       </c>
       <c r="G21" t="n">
-        <v>0.8360733175087738</v>
+        <v>0.8360733175772997</v>
       </c>
       <c r="H21" t="n">
-        <v>-0.2853772018661592</v>
+        <v>-0.2853772020301146</v>
       </c>
       <c r="I21" t="n">
-        <v>0.1101470944633244</v>
+        <v>0.110147094631922</v>
       </c>
       <c r="J21" t="n">
-        <v>47.70387497968369</v>
+        <v>47.70387498305039</v>
       </c>
       <c r="K21" t="n">
-        <v>0.5182003417643526</v>
+        <v>0.5182003417797989</v>
       </c>
       <c r="L21" t="n">
-        <v>0.472274076904619</v>
+        <v>0.4722740770037936</v>
       </c>
       <c r="M21" t="n">
-        <v>0.4537722700657378</v>
+        <v>0.4537722700659005</v>
       </c>
       <c r="N21" t="n">
         <v>86.66666666666667</v>
@@ -1527,28 +1527,28 @@
         <v>51.90000000000001</v>
       </c>
       <c r="F22" t="n">
-        <v>0.4175725027305723</v>
+        <v>0.4175725027114411</v>
       </c>
       <c r="G22" t="n">
-        <v>0.9932962398507166</v>
+        <v>0.9932962399541408</v>
       </c>
       <c r="H22" t="n">
-        <v>-0.311088201905496</v>
+        <v>-0.3110882021217473</v>
       </c>
       <c r="I22" t="n">
-        <v>0.1971740793458897</v>
+        <v>0.1971740793724924</v>
       </c>
       <c r="J22" t="n">
-        <v>53.26564704396109</v>
+        <v>53.26564692298309</v>
       </c>
       <c r="K22" t="n">
-        <v>0.5423428319478342</v>
+        <v>0.5423428319572032</v>
       </c>
       <c r="L22" t="n">
-        <v>0.5247630533757316</v>
+        <v>0.5247630535564852</v>
       </c>
       <c r="M22" t="n">
-        <v>0.6453518756305437</v>
+        <v>0.6453518756335925</v>
       </c>
       <c r="N22" t="n">
         <v>87</v>
